--- a/src/test/resources/test_data/TestDataERP.xlsx
+++ b/src/test/resources/test_data/TestDataERP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barankar/Documents/BRITE_ERP_Cucumber/src/test/resources/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F04C4-E5B2-BF47-A08B-C6E9A00ADCC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFE8214-F65E-404F-9136-62D75C5E0828}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" xr2:uid="{209AEF05-82B6-2440-B417-2BCCDB3325F8}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" activeTab="1" xr2:uid="{209AEF05-82B6-2440-B417-2BCCDB3325F8}"/>
   </bookViews>
   <sheets>
     <sheet name="BRIT-4405" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
   <si>
     <t>Event_Name</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Physical Event</t>
-  </si>
-  <si>
-    <t>Limited</t>
   </si>
 </sst>
 </file>
@@ -634,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D5012F-D111-D24E-AA6A-F69320492E41}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72256A07-B871-C34A-A92F-2A2B6119DD1C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1246,7 +1243,7 @@
         <v>43604.430937500001</v>
       </c>
       <c r="C3" s="3">
-        <v>43604.472604166665</v>
+        <v>43605.472604166665</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,7 +1254,7 @@
         <v>43636.389270833337</v>
       </c>
       <c r="C4" s="3">
-        <v>43636.430937500001</v>
+        <v>43637.430937500001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1268,7 +1265,7 @@
         <v>43668.597604166665</v>
       </c>
       <c r="C5" s="3">
-        <v>43668.639270833337</v>
+        <v>43669.639270833337</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1279,7 +1276,7 @@
         <v>43700.4726041088</v>
       </c>
       <c r="C6" s="3">
-        <v>43700.014270833337</v>
+        <v>43701.014270833337</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,7 +1287,7 @@
         <v>43732.972604166665</v>
       </c>
       <c r="C7" s="3">
-        <v>43732.514270833337</v>
+        <v>43733.514270833337</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1298,7 @@
         <v>43764.722604166665</v>
       </c>
       <c r="C8" s="3">
-        <v>43764.764270833337</v>
+        <v>43765.764270833337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,7 +1309,7 @@
         <v>43796.097604166665</v>
       </c>
       <c r="C9" s="3">
-        <v>43796.139270833337</v>
+        <v>43797.139270833337</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,7 +1320,7 @@
         <v>43828.180937500001</v>
       </c>
       <c r="C10" s="3">
-        <v>43828.222604166665</v>
+        <v>43829.222604166665</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,7 +1331,7 @@
         <v>43860.805937500001</v>
       </c>
       <c r="C11" s="3">
-        <v>43860.847604166665</v>
+        <v>43861.847604166665</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,7 +1342,7 @@
         <v>43892</v>
       </c>
       <c r="C12" s="3">
-        <v>43892.041666666664</v>
+        <v>43893.041666666664</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,7 +1353,7 @@
         <v>43924.389270833337</v>
       </c>
       <c r="C13" s="3">
-        <v>43924.430937500001</v>
+        <v>43925.430937500001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1367,7 +1364,7 @@
         <v>43956.139270833337</v>
       </c>
       <c r="C14" s="3">
-        <v>43956.180937500001</v>
+        <v>43957.180937500001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1378,7 +1375,7 @@
         <v>43988.889270833337</v>
       </c>
       <c r="C15" s="3">
-        <v>43988.930937500001</v>
+        <v>43989.930937500001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,7 +1386,7 @@
         <v>44020.514270833337</v>
       </c>
       <c r="C16" s="3">
-        <v>44020.555937500001</v>
+        <v>44021.555937500001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,7 +1397,7 @@
         <v>44052.055937500001</v>
       </c>
       <c r="C17" s="3">
-        <v>44052.097604166665</v>
+        <v>44053.097604166665</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,7 +1408,7 @@
         <v>44084.097604166665</v>
       </c>
       <c r="C18" s="3">
-        <v>44084.139270833337</v>
+        <v>44085.139270833337</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,7 +1419,7 @@
         <v>44116.389270833337</v>
       </c>
       <c r="C19" s="3">
-        <v>44116.430937500001</v>
+        <v>44117.430937500001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,7 +1430,7 @@
         <v>44148.097604166665</v>
       </c>
       <c r="C20" s="3">
-        <v>44148.139270833337</v>
+        <v>44149.139270833337</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1444,7 +1441,7 @@
         <v>44180.472604166665</v>
       </c>
       <c r="C21" s="3">
-        <v>44180.014270833337</v>
+        <v>44181.014270833337</v>
       </c>
     </row>
   </sheetData>
@@ -1454,20 +1451,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21FB5DA-DBD1-2E40-83B3-1A03CB0342D5}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1480,11 +1477,8 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1494,14 +1488,11 @@
       <c r="C2" s="3">
         <v>43573.014270833337</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1511,14 +1502,11 @@
       <c r="C3" s="3">
         <v>43604.472604166665</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1528,14 +1516,11 @@
       <c r="C4" s="3">
         <v>43636.430937500001</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1545,14 +1530,11 @@
       <c r="C5" s="3">
         <v>43668.639270833337</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1562,14 +1544,11 @@
       <c r="C6" s="3">
         <v>43700.014270833337</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1579,14 +1558,11 @@
       <c r="C7" s="3">
         <v>43732.514270833337</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1596,14 +1572,11 @@
       <c r="C8" s="3">
         <v>43764.764270833337</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1613,14 +1586,11 @@
       <c r="C9" s="3">
         <v>43796.139270833337</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1630,14 +1600,11 @@
       <c r="C10" s="3">
         <v>43828.222604166665</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1647,14 +1614,11 @@
       <c r="C11" s="3">
         <v>43860.847604166665</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1664,14 +1628,11 @@
       <c r="C12" s="3">
         <v>43892.041666666664</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1681,14 +1642,11 @@
       <c r="C13" s="3">
         <v>43924.430937500001</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1698,14 +1656,11 @@
       <c r="C14" s="3">
         <v>43956.180937500001</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1715,14 +1670,11 @@
       <c r="C15" s="3">
         <v>43988.930937500001</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1732,14 +1684,11 @@
       <c r="C16" s="3">
         <v>44020.555937500001</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1749,14 +1698,11 @@
       <c r="C17" s="3">
         <v>44052.097604166665</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1766,14 +1712,11 @@
       <c r="C18" s="3">
         <v>44084.139270833337</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1783,14 +1726,11 @@
       <c r="C19" s="3">
         <v>44116.430937500001</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1800,14 +1740,11 @@
       <c r="C20" s="3">
         <v>44148.139270833337</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1817,15 +1754,13 @@
       <c r="C21" s="3">
         <v>44180.014270833337</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="1">
         <v>999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2044,7 +1979,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2072,7 +2007,7 @@
         <v>43573.014270833337</v>
       </c>
       <c r="C2" s="3">
-        <v>43572.014270833337</v>
+        <v>43571.014270833337</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2083,7 +2018,7 @@
         <v>43604.472604166665</v>
       </c>
       <c r="C3" s="3">
-        <v>43604.430937500001</v>
+        <v>43603.430937500001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2094,7 +2029,7 @@
         <v>43636.430937500001</v>
       </c>
       <c r="C4" s="3">
-        <v>43636.389270833337</v>
+        <v>43635.389270833337</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2105,7 +2040,7 @@
         <v>43668.639270833337</v>
       </c>
       <c r="C5" s="3">
-        <v>43668.597604166665</v>
+        <v>43667.597604166665</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2116,7 +2051,7 @@
         <v>43700.014270833337</v>
       </c>
       <c r="C6" s="3">
-        <v>43700.4726041088</v>
+        <v>43699.472604166665</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2127,7 +2062,7 @@
         <v>43732.514270833337</v>
       </c>
       <c r="C7" s="3">
-        <v>43732.972604166665</v>
+        <v>43731.972604166665</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2138,7 +2073,7 @@
         <v>43764.764270833337</v>
       </c>
       <c r="C8" s="3">
-        <v>43764.722604166665</v>
+        <v>43763.722604166665</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2149,7 +2084,7 @@
         <v>43796.139270833337</v>
       </c>
       <c r="C9" s="3">
-        <v>43796.097604166665</v>
+        <v>43795.097604166665</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2160,7 +2095,7 @@
         <v>43828.222604166665</v>
       </c>
       <c r="C10" s="3">
-        <v>43828.180937500001</v>
+        <v>43827.180937500001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,7 +2106,7 @@
         <v>43860.847604166665</v>
       </c>
       <c r="C11" s="3">
-        <v>43860.805937500001</v>
+        <v>43859.805937500001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2182,7 +2117,7 @@
         <v>43892.041666666664</v>
       </c>
       <c r="C12" s="3">
-        <v>43892</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,7 +2128,7 @@
         <v>43924.430937500001</v>
       </c>
       <c r="C13" s="3">
-        <v>43924.389270833337</v>
+        <v>43923.389270833337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,7 +2139,7 @@
         <v>43956.180937500001</v>
       </c>
       <c r="C14" s="3">
-        <v>43956.139270833337</v>
+        <v>43955.139270833337</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2215,7 +2150,7 @@
         <v>43988.930937500001</v>
       </c>
       <c r="C15" s="3">
-        <v>43988.889270833337</v>
+        <v>43987.889270833337</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2226,7 +2161,7 @@
         <v>44020.555937500001</v>
       </c>
       <c r="C16" s="3">
-        <v>44020.514270833337</v>
+        <v>44019.514270833337</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2237,7 +2172,7 @@
         <v>44052.097604166665</v>
       </c>
       <c r="C17" s="3">
-        <v>44052.055937500001</v>
+        <v>44051.055937500001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,7 +2183,7 @@
         <v>44084.139270833337</v>
       </c>
       <c r="C18" s="3">
-        <v>44084.097604166665</v>
+        <v>44083.097604166665</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,7 +2194,7 @@
         <v>44116.430937500001</v>
       </c>
       <c r="C19" s="3">
-        <v>44116.389270833337</v>
+        <v>44115.389270833337</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2270,7 +2205,7 @@
         <v>44148.139270833337</v>
       </c>
       <c r="C20" s="3">
-        <v>44148.097604166665</v>
+        <v>44147.097604166665</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2281,7 +2216,7 @@
         <v>44180.014270833337</v>
       </c>
       <c r="C21" s="3">
-        <v>44180.472604166665</v>
+        <v>44179.472604166665</v>
       </c>
     </row>
   </sheetData>
